--- a/Data/Input/challenge.xlsx
+++ b/Data/Input/challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://opteamix-my.sharepoint.com/personal/ssatish_opteamix_com/Documents/Documents/UiPath/RPA Challenge Assignment 3/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_B3A8E479FA8C3A2FAC45D062EB23D568B2B3CF46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05660BCE-7713-44B7-988A-E927A547ED99}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_B3A8E479FA8C3A2FAC45D062EB23D568B2B3CF46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EC771D-AE9F-45BA-B41F-1CC958974141}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>First Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>jsmith@itsolutions.co.uk</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>kipling@waterfront.com</t>
-  </si>
-  <si>
-    <t>SkippedBusiness Rule Exception Occured. First Name field has null or white space.</t>
   </si>
   <si>
     <t>Michael</t>
@@ -624,10 +618,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="16.453125" customWidth="1"/>
@@ -688,236 +682,206 @@
       <c r="G2">
         <v>40716543298</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3">
         <v>40791345621</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
       <c r="G4">
         <v>40735416854</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5">
         <v>40733652145</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>40799885412</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
       </c>
       <c r="G7">
         <v>40733154268</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
       <c r="G8">
         <v>40712462257</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
       </c>
       <c r="G9">
         <v>40731254562</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
       </c>
       <c r="G10">
         <v>40741785214</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
       </c>
       <c r="G11">
         <v>40731653845</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
